--- a/Excel_luban/Datas/MainUIBtnConfig.xlsx
+++ b/Excel_luban/Datas/MainUIBtnConfig.xlsx
@@ -106,7 +106,7 @@
     <t>ui://MainCenter/btn_league</t>
   </si>
   <si>
-    <t>联盟_声音</t>
+    <t>A星示例</t>
   </si>
   <si>
     <t>ui://MainCenter/btn_bag</t>
@@ -155,7 +155,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +185,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10.5"/>
       <color rgb="FF202020"/>
       <name val="微软雅黑"/>
@@ -196,6 +205,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -342,7 +359,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -353,7 +370,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -700,138 +717,138 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -842,20 +859,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1219,31 +1239,31 @@
   <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="22.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="4" customWidth="1"/>
     <col min="3" max="3" width="27.875" style="5" customWidth="1"/>
     <col min="4" max="4" width="17.875" style="4" customWidth="1"/>
     <col min="5" max="5" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17.25" spans="1:27">
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:27">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="9"/>
@@ -1270,13 +1290,13 @@
       <c r="AA1" s="10"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:27">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -1301,16 +1321,16 @@
       <c r="AA2" s="10"/>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:27">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -1340,17 +1360,17 @@
       <c r="AA3" s="10"/>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:27">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="9"/>
@@ -1377,16 +1397,16 @@
       <c r="AA4" s="10"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:27">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -1486,44 +1506,44 @@
       </c>
     </row>
     <row r="11" s="3" customFormat="1" spans="2:5">
-      <c r="B11" s="15">
+      <c r="B11" s="16">
         <v>2001</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" spans="2:5">
-      <c r="B12" s="15">
+      <c r="B12" s="16">
         <v>2002</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="13" s="3" customFormat="1" spans="2:5">
-      <c r="B13" s="15">
+      <c r="B13" s="16">
         <v>2003</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="17">
         <v>2</v>
       </c>
     </row>
